--- a/train/20250220_150401/benchmark_WT(R).xlsx
+++ b/train/20250220_150401/benchmark_WT(R).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,26 @@
           <t>Epoch 10</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 20</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 30</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 40</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 50</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +477,18 @@
       <c r="C2" t="n">
         <v>5682.000049591064</v>
       </c>
+      <c r="D2" t="n">
+        <v>5671.200078582764</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5673.36008758545</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5658.720053863526</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5757.600066375733</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +502,18 @@
       <c r="C3" t="n">
         <v>17830.44011688232</v>
       </c>
+      <c r="D3" t="n">
+        <v>18044.34014816284</v>
+      </c>
+      <c r="E3" t="n">
+        <v>17199.36017456055</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17353.38009414673</v>
+      </c>
+      <c r="G3" t="n">
+        <v>17511.12014083862</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +527,18 @@
       <c r="C4" t="n">
         <v>43172.26038742065</v>
       </c>
+      <c r="D4" t="n">
+        <v>43620.40011367798</v>
+      </c>
+      <c r="E4" t="n">
+        <v>44254.18027572632</v>
+      </c>
+      <c r="F4" t="n">
+        <v>43918.36013183594</v>
+      </c>
+      <c r="G4" t="n">
+        <v>43938.22011566162</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +552,18 @@
       <c r="C5" t="n">
         <v>73760.82042694092</v>
       </c>
+      <c r="D5" t="n">
+        <v>73574.66011047363</v>
+      </c>
+      <c r="E5" t="n">
+        <v>74092.07995071412</v>
+      </c>
+      <c r="F5" t="n">
+        <v>74978.34022369386</v>
+      </c>
+      <c r="G5" t="n">
+        <v>75707.46043014526</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +577,18 @@
       <c r="C6" t="n">
         <v>103244.3399711609</v>
       </c>
+      <c r="D6" t="n">
+        <v>103188.2401885986</v>
+      </c>
+      <c r="E6" t="n">
+        <v>104290.3399139404</v>
+      </c>
+      <c r="F6" t="n">
+        <v>104882.0002471924</v>
+      </c>
+      <c r="G6" t="n">
+        <v>104068.940586853</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -522,6 +602,18 @@
       <c r="C7" t="n">
         <v>133885.7599098206</v>
       </c>
+      <c r="D7" t="n">
+        <v>133509.4397453308</v>
+      </c>
+      <c r="E7" t="n">
+        <v>136396.3005317688</v>
+      </c>
+      <c r="F7" t="n">
+        <v>135588.9205940247</v>
+      </c>
+      <c r="G7" t="n">
+        <v>137584.1199653626</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -535,6 +627,18 @@
       <c r="C8" t="n">
         <v>8190.480072784424</v>
       </c>
+      <c r="D8" t="n">
+        <v>8109.840106964111</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7984.080135345459</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7989.360069274902</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8013.360098266602</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -548,6 +652,18 @@
       <c r="C9" t="n">
         <v>29206.14014663696</v>
       </c>
+      <c r="D9" t="n">
+        <v>29040.12013626099</v>
+      </c>
+      <c r="E9" t="n">
+        <v>28379.10022125244</v>
+      </c>
+      <c r="F9" t="n">
+        <v>28407.60021667481</v>
+      </c>
+      <c r="G9" t="n">
+        <v>27944.16014709473</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -561,6 +677,18 @@
       <c r="C10" t="n">
         <v>69907.54018783569</v>
       </c>
+      <c r="D10" t="n">
+        <v>71218.74013519287</v>
+      </c>
+      <c r="E10" t="n">
+        <v>71004.7802482605</v>
+      </c>
+      <c r="F10" t="n">
+        <v>70056.02034225465</v>
+      </c>
+      <c r="G10" t="n">
+        <v>71365.20045852661</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -573,6 +701,18 @@
       </c>
       <c r="C11" t="n">
         <v>113467.4204185486</v>
+      </c>
+      <c r="D11" t="n">
+        <v>114024.4402633667</v>
+      </c>
+      <c r="E11" t="n">
+        <v>117826.1803153992</v>
+      </c>
+      <c r="F11" t="n">
+        <v>118492.2805038452</v>
+      </c>
+      <c r="G11" t="n">
+        <v>122090.7200569153</v>
       </c>
     </row>
   </sheetData>
